--- a/input_sample/sample4.xlsx
+++ b/input_sample/sample4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845621C4-8348-4F58-82C7-0FA661B80789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D164BA39-1B52-4241-8702-929FCBA15D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10365" yWindow="6375" windowWidth="20775" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -156,13 +156,6 @@
   </si>
   <si>
     <t>あ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対象外</t>
-    <rPh sb="0" eb="3">
-      <t>タイショウガイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -491,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -599,9 +592,6 @@
       <c r="L14" t="s">
         <v>24</v>
       </c>
-      <c r="O14" t="s">
-        <v>25</v>
-      </c>
       <c r="Q14" s="1"/>
       <c r="U14" s="1"/>
     </row>
@@ -609,6 +599,9 @@
       <c r="A15">
         <v>5</v>
       </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="U15" s="1"/>
     </row>
@@ -616,26 +609,38 @@
       <c r="A16">
         <v>6</v>
       </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="17:21">
+    <row r="17" spans="12:21">
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
       <c r="Q17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="17:21">
+    <row r="18" spans="12:21">
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="17:21">
+    <row r="19" spans="12:21">
+      <c r="L19" t="s">
+        <v>24</v>
+      </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="17:21">
+    <row r="20" spans="12:21">
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="17:21">
+    <row r="21" spans="12:21">
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="17:21">
+    <row r="22" spans="12:21">
       <c r="Q22" s="1"/>
     </row>
   </sheetData>

--- a/input_sample/sample4.xlsx
+++ b/input_sample/sample4.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D164BA39-1B52-4241-8702-929FCBA15D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84644131-7A78-4091-9FA5-A1799EA383B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10365" yWindow="6375" windowWidth="20775" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目1" sheetId="1" r:id="rId1"/>
-    <sheet name="テスト項目2" sheetId="2" r:id="rId2"/>
-    <sheet name="dummy" sheetId="3" r:id="rId3"/>
+    <sheet name="dummy" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -484,9 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -503,9 +500,6 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -535,24 +529,6 @@
       </c>
       <c r="L10" t="s">
         <v>23</v>
-      </c>
-      <c r="O10" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>2</v>
-      </c>
-      <c r="S10" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -650,188 +626,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1064A89-B6E7-4398-BE09-73C544D68297}">
-  <dimension ref="A1:T28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="16" max="16" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" t="s">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="K13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="1"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="K15" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="K16" t="s">
-        <v>24</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="16:20">
-      <c r="P17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="16:20">
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="16:20">
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="16:20">
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="16:20">
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="16:20">
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="16:20">
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="16:20">
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="16:20">
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="16:20">
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="16:20">
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="16:20">
-      <c r="P28" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB07ADF-69FC-48F2-BD88-0491963CDCE9}">
   <dimension ref="A10:U22"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>

--- a/input_sample/sample4.xlsx
+++ b/input_sample/sample4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84644131-7A78-4091-9FA5-A1799EA383B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1558E0C-3AA4-4EF0-B627-C2EC847262CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10365" yWindow="6375" windowWidth="20775" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -155,6 +155,31 @@
   </si>
   <si>
     <t>あ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施結果</t>
+    <rPh sb="0" eb="4">
+      <t>ジッシケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -483,7 +508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -500,6 +527,9 @@
       </c>
     </row>
     <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -529,6 +559,15 @@
       </c>
       <c r="L10" t="s">
         <v>23</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:21">

--- a/input_sample/sample4.xlsx
+++ b/input_sample/sample4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1558E0C-3AA4-4EF0-B627-C2EC847262CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EAB5EF-1B42-41B1-A5D2-DDA610730F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10365" yWindow="6375" windowWidth="20775" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -176,10 +176,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日付</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
+    <t>実施日</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -509,7 +517,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -577,7 +585,15 @@
       <c r="L11" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="1"/>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>45658</v>
+      </c>
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21">

--- a/input_sample/sample4.xlsx
+++ b/input_sample/sample4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EAB5EF-1B42-41B1-A5D2-DDA610730F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B1B0E4-6631-4AA6-A6D9-AFE085C8FEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10365" yWindow="6375" windowWidth="20775" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -180,14 +180,6 @@
     <rPh sb="0" eb="3">
       <t>ジッシビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>aaa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -517,7 +509,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="O11" sqref="O11:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -585,15 +577,7 @@
       <c r="L11" t="s">
         <v>24</v>
       </c>
-      <c r="O11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>45658</v>
-      </c>
+      <c r="Q11" s="1"/>
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21">

--- a/input_sample/sample4.xlsx
+++ b/input_sample/sample4.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B1B0E4-6631-4AA6-A6D9-AFE085C8FEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645A76C6-37A4-4554-B9B5-43F9B789A838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="6375" windowWidth="20775" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14100" yWindow="5130" windowWidth="20775" windowHeight="13005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目1" sheetId="1" r:id="rId1"/>
-    <sheet name="dummy" sheetId="3" r:id="rId2"/>
+    <sheet name="テスト項目2" sheetId="4" r:id="rId2"/>
+    <sheet name="dummy" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -180,6 +181,22 @@
     <rPh sb="0" eb="3">
       <t>ジッシビ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -508,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11:Q14"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -522,9 +539,6 @@
       <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
@@ -577,16 +591,21 @@
       <c r="L11" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="1"/>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>45746</v>
+      </c>
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="L12" t="s">
-        <v>24</v>
-      </c>
       <c r="Q12" s="1"/>
       <c r="U12" s="1"/>
     </row>
@@ -594,9 +613,6 @@
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="L13" t="s">
-        <v>24</v>
-      </c>
       <c r="Q13" s="1"/>
       <c r="U13" s="1"/>
     </row>
@@ -604,9 +620,6 @@
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="L14" t="s">
-        <v>24</v>
-      </c>
       <c r="Q14" s="1"/>
       <c r="U14" s="1"/>
     </row>
@@ -614,9 +627,6 @@
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="L15" t="s">
-        <v>24</v>
-      </c>
       <c r="Q15" s="1"/>
       <c r="U15" s="1"/>
     </row>
@@ -624,38 +634,26 @@
       <c r="A16">
         <v>6</v>
       </c>
-      <c r="L16" t="s">
-        <v>24</v>
-      </c>
       <c r="Q16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="12:21">
-      <c r="L17" t="s">
-        <v>24</v>
-      </c>
+    <row r="17" spans="17:21">
       <c r="Q17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="12:21">
-      <c r="L18" t="s">
-        <v>24</v>
-      </c>
+    <row r="18" spans="17:21">
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="12:21">
-      <c r="L19" t="s">
-        <v>24</v>
-      </c>
+    <row r="19" spans="17:21">
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="12:21">
+    <row r="20" spans="17:21">
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="12:21">
+    <row r="21" spans="17:21">
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="12:21">
+    <row r="22" spans="17:21">
       <c r="Q22" s="1"/>
     </row>
   </sheetData>
@@ -665,6 +663,161 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F611F9-3450-4E36-9AA2-EF4248D637D4}">
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>45741</v>
+      </c>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>45740</v>
+      </c>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="17:21">
+      <c r="Q17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="17:21">
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="17:21">
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="17:21">
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="17:21">
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="17:21">
+      <c r="Q22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB07ADF-69FC-48F2-BD88-0491963CDCE9}">
   <dimension ref="A10:U22"/>
   <sheetViews>
